--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value483.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value483.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.000576036217314</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.779076959678109</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.210508015497762</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.466847573988983</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.029194662366362</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
